--- a/Vis_COE_Task_T2/target/test-classes/data/TestData.xlsx
+++ b/Vis_COE_Task_T2/target/test-classes/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="1395" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9810" windowHeight="2985" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
